--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2051505577605</v>
+        <v>42.934631</v>
       </c>
       <c r="H2">
-        <v>36.2051505577605</v>
+        <v>128.803893</v>
       </c>
       <c r="I2">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="J2">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>5129.174966950799</v>
+        <v>6591.71170699927</v>
       </c>
       <c r="R2">
-        <v>5129.174966950799</v>
+        <v>59325.40536299344</v>
       </c>
       <c r="S2">
-        <v>0.03145158776181341</v>
+        <v>0.03324804401928892</v>
       </c>
       <c r="T2">
-        <v>0.03145158776181341</v>
+        <v>0.03324804401928893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.2051505577605</v>
+        <v>42.934631</v>
       </c>
       <c r="H3">
-        <v>36.2051505577605</v>
+        <v>128.803893</v>
       </c>
       <c r="I3">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="J3">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>6104.844122962517</v>
+        <v>7247.352946903051</v>
       </c>
       <c r="R3">
-        <v>6104.844122962517</v>
+        <v>65226.17652212746</v>
       </c>
       <c r="S3">
-        <v>0.03743429341808768</v>
+        <v>0.03655504374472222</v>
       </c>
       <c r="T3">
-        <v>0.03743429341808768</v>
+        <v>0.03655504374472222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.2051505577605</v>
+        <v>42.934631</v>
       </c>
       <c r="H4">
-        <v>36.2051505577605</v>
+        <v>128.803893</v>
       </c>
       <c r="I4">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="J4">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>2230.005341955512</v>
+        <v>2923.432906987357</v>
       </c>
       <c r="R4">
-        <v>2230.005341955512</v>
+        <v>26310.89616288621</v>
       </c>
       <c r="S4">
-        <v>0.01367416966154341</v>
+        <v>0.01474555173214649</v>
       </c>
       <c r="T4">
-        <v>0.01367416966154341</v>
+        <v>0.0147455517321465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.2051505577605</v>
+        <v>42.934631</v>
       </c>
       <c r="H5">
-        <v>36.2051505577605</v>
+        <v>128.803893</v>
       </c>
       <c r="I5">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="J5">
-        <v>0.1003609583164432</v>
+        <v>0.1048104500939054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>2903.000309594117</v>
+        <v>4017.078840628663</v>
       </c>
       <c r="R5">
-        <v>2903.000309594117</v>
+        <v>36153.70956565797</v>
       </c>
       <c r="S5">
-        <v>0.01780090747499874</v>
+        <v>0.02026181059774777</v>
       </c>
       <c r="T5">
-        <v>0.01780090747499874</v>
+        <v>0.02026181059774778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.342769090573</v>
+        <v>145.5961606666667</v>
       </c>
       <c r="H6">
-        <v>145.342769090573</v>
+        <v>436.788482</v>
       </c>
       <c r="I6">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="J6">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>20590.67512113642</v>
+        <v>22353.23547465945</v>
       </c>
       <c r="R6">
-        <v>20590.67512113642</v>
+        <v>201179.1192719351</v>
       </c>
       <c r="S6">
-        <v>0.126259959900023</v>
+        <v>0.1127478551960722</v>
       </c>
       <c r="T6">
-        <v>0.126259959900023</v>
+        <v>0.1127478551960723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.342769090573</v>
+        <v>145.5961606666667</v>
       </c>
       <c r="H7">
-        <v>145.342769090573</v>
+        <v>436.788482</v>
       </c>
       <c r="I7">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="J7">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>24507.42328172677</v>
+        <v>24576.58862994157</v>
       </c>
       <c r="R7">
-        <v>24507.42328172677</v>
+        <v>221189.2976694741</v>
       </c>
       <c r="S7">
-        <v>0.150277067779453</v>
+        <v>0.123962263055984</v>
       </c>
       <c r="T7">
-        <v>0.150277067779453</v>
+        <v>0.123962263055984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>145.342769090573</v>
+        <v>145.5961606666667</v>
       </c>
       <c r="H8">
-        <v>145.342769090573</v>
+        <v>436.788482</v>
       </c>
       <c r="I8">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="J8">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>8952.183501336411</v>
+        <v>9913.689655885284</v>
       </c>
       <c r="R8">
-        <v>8952.183501336411</v>
+        <v>89223.20690296755</v>
       </c>
       <c r="S8">
-        <v>0.05489389363130318</v>
+        <v>0.05000382369915431</v>
       </c>
       <c r="T8">
-        <v>0.05489389363130318</v>
+        <v>0.05000382369915433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>145.342769090573</v>
+        <v>145.5961606666667</v>
       </c>
       <c r="H9">
-        <v>145.342769090573</v>
+        <v>436.788482</v>
       </c>
       <c r="I9">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="J9">
-        <v>0.4028912838526725</v>
+        <v>0.3554240196315627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>11653.86960604034</v>
+        <v>13622.3659705108</v>
       </c>
       <c r="R9">
-        <v>11653.86960604034</v>
+        <v>122601.2937345972</v>
       </c>
       <c r="S9">
-        <v>0.07146036254189331</v>
+        <v>0.06871007768035213</v>
       </c>
       <c r="T9">
-        <v>0.07146036254189331</v>
+        <v>0.06871007768035213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.355426795737</v>
+        <v>207.2564646666667</v>
       </c>
       <c r="H10">
-        <v>168.355426795737</v>
+        <v>621.769394</v>
       </c>
       <c r="I10">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261112</v>
       </c>
       <c r="J10">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>23850.87280035954</v>
+        <v>31819.88135625405</v>
       </c>
       <c r="R10">
-        <v>23850.87280035954</v>
+        <v>286378.9322062865</v>
       </c>
       <c r="S10">
-        <v>0.1462511659106661</v>
+        <v>0.1604968273867203</v>
       </c>
       <c r="T10">
-        <v>0.1462511659106661</v>
+        <v>0.1604968273867204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.355426795737</v>
+        <v>207.2564646666667</v>
       </c>
       <c r="H11">
-        <v>168.355426795737</v>
+        <v>621.769394</v>
       </c>
       <c r="I11">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261112</v>
       </c>
       <c r="J11">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>28387.77417050398</v>
+        <v>34984.82961147785</v>
       </c>
       <c r="R11">
-        <v>28387.77417050398</v>
+        <v>314863.4665033006</v>
       </c>
       <c r="S11">
-        <v>0.1740709912293991</v>
+        <v>0.1764605623899848</v>
       </c>
       <c r="T11">
-        <v>0.1740709912293991</v>
+        <v>0.1764605623899848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>168.355426795737</v>
+        <v>207.2564646666667</v>
       </c>
       <c r="H12">
-        <v>168.355426795737</v>
+        <v>621.769394</v>
       </c>
       <c r="I12">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261112</v>
       </c>
       <c r="J12">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>10369.61579548577</v>
+        <v>14112.15969207691</v>
       </c>
       <c r="R12">
-        <v>10369.61579548577</v>
+        <v>127009.4372286922</v>
       </c>
       <c r="S12">
-        <v>0.06358544665554508</v>
+        <v>0.07118055635703786</v>
       </c>
       <c r="T12">
-        <v>0.06358544665554508</v>
+        <v>0.07118055635703789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>168.355426795737</v>
+        <v>207.2564646666667</v>
       </c>
       <c r="H13">
-        <v>168.355426795737</v>
+        <v>621.769394</v>
       </c>
       <c r="I13">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261112</v>
       </c>
       <c r="J13">
-        <v>0.4666825496012827</v>
+        <v>0.5059468974261113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>13499.06984450075</v>
+        <v>19391.46883074339</v>
       </c>
       <c r="R13">
-        <v>13499.06984450075</v>
+        <v>174523.2194766905</v>
       </c>
       <c r="S13">
-        <v>0.08277494580567246</v>
+        <v>0.09780895129236825</v>
       </c>
       <c r="T13">
-        <v>0.08277494580567246</v>
+        <v>0.09780895129236827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.8460043503271</v>
+        <v>13.85349</v>
       </c>
       <c r="H14">
-        <v>10.8460043503271</v>
+        <v>41.56047</v>
       </c>
       <c r="I14">
-        <v>0.03006520822960144</v>
+        <v>0.0338186328484206</v>
       </c>
       <c r="J14">
-        <v>0.03006520822960144</v>
+        <v>0.03381863284842061</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>1536.550826280512</v>
+        <v>2126.91270633716</v>
       </c>
       <c r="R14">
-        <v>1536.550826280512</v>
+        <v>19142.21435703444</v>
       </c>
       <c r="S14">
-        <v>0.009421975946353399</v>
+        <v>0.01072797027976737</v>
       </c>
       <c r="T14">
-        <v>0.009421975946353399</v>
+        <v>0.01072797027976737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.8460043503271</v>
+        <v>13.85349</v>
       </c>
       <c r="H15">
-        <v>10.8460043503271</v>
+        <v>41.56047</v>
       </c>
       <c r="I15">
-        <v>0.03006520822960144</v>
+        <v>0.0338186328484206</v>
       </c>
       <c r="J15">
-        <v>0.03006520822960144</v>
+        <v>0.03381863284842061</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>1828.832773670862</v>
+        <v>2338.464992895641</v>
       </c>
       <c r="R15">
-        <v>1828.832773670862</v>
+        <v>21046.18493606076</v>
       </c>
       <c r="S15">
-        <v>0.0112142196071319</v>
+        <v>0.01179502236707407</v>
       </c>
       <c r="T15">
-        <v>0.0112142196071319</v>
+        <v>0.01179502236707407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.8460043503271</v>
+        <v>13.85349</v>
       </c>
       <c r="H16">
-        <v>10.8460043503271</v>
+        <v>41.56047</v>
       </c>
       <c r="I16">
-        <v>0.03006520822960144</v>
+        <v>0.0338186328484206</v>
       </c>
       <c r="J16">
-        <v>0.03006520822960144</v>
+        <v>0.03381863284842061</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>668.0443878148104</v>
+        <v>943.2886133951</v>
       </c>
       <c r="R16">
-        <v>668.0443878148104</v>
+        <v>8489.597520555901</v>
       </c>
       <c r="S16">
-        <v>0.004096381353244246</v>
+        <v>0.004757869083951696</v>
       </c>
       <c r="T16">
-        <v>0.004096381353244246</v>
+        <v>0.004757869083951698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.8460043503271</v>
+        <v>13.85349</v>
       </c>
       <c r="H17">
-        <v>10.8460043503271</v>
+        <v>41.56047</v>
       </c>
       <c r="I17">
-        <v>0.03006520822960144</v>
+        <v>0.0338186328484206</v>
       </c>
       <c r="J17">
-        <v>0.03006520822960144</v>
+        <v>0.03381863284842061</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>869.6539995497895</v>
+        <v>1296.16955477877</v>
       </c>
       <c r="R17">
-        <v>869.6539995497895</v>
+        <v>11665.52599300893</v>
       </c>
       <c r="S17">
-        <v>0.005332631322871894</v>
+        <v>0.006537771117627465</v>
       </c>
       <c r="T17">
-        <v>0.005332631322871894</v>
+        <v>0.006537771117627466</v>
       </c>
     </row>
   </sheetData>
